--- a/excel_of_florida_city.xlsx
+++ b/excel_of_florida_city.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\software_development\web_scrapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4A526C0F-E47A-4501-AA76-8A91ACC024B8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADFF80F7-2512-4591-925C-6F6A09C35257}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7425" xr2:uid="{E2BE7F42-F268-4E9C-9232-FBEAFB34120F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="1680">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3296" uniqueCount="1679">
   <si>
     <t>Rank</t>
   </si>
@@ -5077,9 +5077,6 @@
   </si>
   <si>
     <t>1,737</t>
-  </si>
-  <si>
-    <t>city</t>
   </si>
 </sst>
 </file>
@@ -5186,7 +5183,7 @@
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{99263A62-E2BA-42F8-B888-E9678D71C98E}" uniqueName="1" name="Rank" queryTableFieldId="1" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{86765171-A33A-4C44-8745-FFD8DE400E08}" uniqueName="2" name="city" queryTableFieldId="2" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{86765171-A33A-4C44-8745-FFD8DE400E08}" uniqueName="2" name="City" queryTableFieldId="2" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{86EBC703-3FB9-4115-89FA-DB811A777FA4}" uniqueName="3" name="County" queryTableFieldId="3" dataDxfId="5"/>
     <tableColumn id="4" xr3:uid="{BDB2F0EE-A8CA-44A3-90B5-FF97DA05FF6C}" uniqueName="4" name="Population (2020)[17]" queryTableFieldId="4" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{5FDC863A-95D8-4E1A-A7CE-B89142385002}" uniqueName="5" name="Area[18]" queryTableFieldId="5" dataDxfId="3"/>
@@ -5498,7 +5495,7 @@
   <dimension ref="A1:H412"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5518,7 +5515,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1679</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
